--- a/500all/speech_level/speeches_CHRG-114hhrg25499.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25499.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="372">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    And without objection, the chair is authorized to declare a recess at any time.    Good morning, and thank you for being here. This is an important topic that affects every American, and it is a vital part of our commerce in the United States of America. We are here to discuss the future of the United States Postal Service and to address options for ensuring its long-term viability.    Each year, more than 40 percent of the world mail volume is carried through the United States Postal Service. The Postal Service employs more than 400,000 full-time workers spread throughout the country. It is also the backbone of more than a trillion-dollar mailing industry that employs more than 7.5 million people.    However, due to the ongoing changes in the way Americans use the mail, the Postal Service faces an unprecedented financial crisis. Since 2006, mail volume has declined more than 25 percent or about 60 billion pieces of mail annually. As a result, the Postal Service has lost money for 9 straight years. With nearly a decade of running behind, the Postal Service faces mounting long-term financial challenges. The agency has $125 billion in unfunded liabilities, including $54 billion for retiree health care, and has exhausted its $15 billion statutory debt limit.    Further, the Postal Service lacks the funds it needs for critical infrastructure investments. Chief among those is the purchase of a delivery fleet projected to cost roughly $6 billion. Think about all those millions and millions of postal boxes that need somebody to come actually deliver the mail to them. It is a miraculous thing, I think, in this country that for less than 50 cents you can put a stamp on an envelope and a day or 2 or 3 days later, that is going to show up at another address within the country. It really is truly amazing. But if you are going to purchase new delivery vehicles and prepare for the next decade or two, you are going to need some money, and it is something that the Postal Service does not have.    In the meantime, they must manage a delivery fleet of vehicles, which on average is 24 years old and costs $1 billion a year in maintenance. That is just the maintenance cost. While the Postal Service has made efforts to cut cost and streamline its operations, it is not enough.    I think it is important to note that many of the unions have been very helpful in actually working with the Postal Service and making cuts, but they don't want to keep continuing to cut the number of personnel, and neither do I. We want to see a growing, vibrant, thriving Postal Service.    So today, we are going to hear from representatives of five key stakeholders within the postal community, including the postmaster general, the Postal Regulatory Commission, the Government Accountability Office, private industry, and one of the more important postal unions. There are a number of postal unions. I wish we could have them all up at the same time, but we have one here with us today.    The witnesses will discuss reforms as needed, as well as how certain reform proposals would work. One of the things that is most critical in dealing with this has to do with Medicare, and I look forward to hearing from the Postmaster General Brennan and the NALC union President Rolando about a joint proposal to require the Postal Service retirees to fully enroll in Medicare in order to receive Federal health care benefits in their retirement.    Since 1983, postal workers have paid some $29 billion, $29 billion they have paid into Medicare. Currently, postal retirees have a choice in enrolling in Medicare. As Federal retirees, they can continue their sole enrollment in Federal employee health care plans, or they can enroll in both a Federal plan and Medicare. While three-quarters of retirees already enroll in both Medicare and the Federal plan, the Postal Service and its retirees could see significant savings if all retirees were duly enrolled.    I look forward to hearing more about this proposal. It is one of the most key elements, biggest elements in our drafting and coming forward with a reform package that has a vibrant and sustainable Postal Service. Let me just say I think it is important to note the approach that we are taking here.    Are there costs to be cut? Yes. Are there things that we can do to become more effective, more efficient? Yes. But I also do believe that the Postal Service is a vital tool of commerce, and a thriving, vibrant, productive Postal Service is essential to our economy. We cannot ignore this.    Think about the world of the internet. Think about the way commerce is moving. Think of the way we communicate. Think of how we send bills and communicate as nation. You have to have a vibrant, thriving Postal Service in order to achieve all of that. That is why I think so many people are here today, and it is one of the most important things that our committee will be addressing and taking care of. That is the goal, and that is what we are trying to achieve.    And thank you all for being here. We should have a good hearing today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. And I, first of all, want to thank you, Mr. Chairman, for your hard work and staff on both sides working so hard for a long time to try to resolve the many complex issues that Postal Service faces. And I want to thank the Postal Service community and all of those affected by it because there is a genuine effort to try to come to some type of resolution that is a win-win-win-win for everybody. And I express my appreciation because it helps us as we move along.    I also want to thank our witnesses for being here to discuss ideas for addressing the significant challenges facing this very critical institution. Since its establishment more than 240 years ago, the Postal Service has served as the critical link that touches each one of our lives and connects us all together, our families, our businesses, and our communities.    Through more than 32,000 post offices staffed by more than 600,000 people, the Postal Service delivers more than 150 billion pieces of mail a year to more than 150 million addresses. Since the last postal reform legislation was enacted some 10 years ago, the Postal Service has encountered deepening financial challenges. As a result of the increasing popularity of one-line communications and transactions, the volume of mail handled by the Postal Service has fallen by more than 25 percent since 2006, and this trend is expected to continue.    The cost of the Postal Service's operations have also risen in part because the Postal Service is required to provide universal delivery service to every address in the United States. Every year, about 900,000 new addresses are created in this country, and the Postal Service, its network and facilities, letter carriers and workers must expanded to deliver to every single new address.    Congress has also imposed substantial burdens on the Postal Service that have nothing to do with providing universal service. The Postal Accountability and Enhancement Act of 2006 required the Postal Service to fully prefund its liabilities for retiree health care costs, a requirement that no other Federal agency or private sector company faces. These liabilities, together with unfunded pension liabilities, currently amount to about $125 billion, which is almost double the agency's annual revenues.    Since 2006, the Postal Service has instituted many cost-saving measures, including the following: cutting 200,000 positions through attrition, cutting work hours by 331 million, consolidating more than 360 facilities and 20,000 delivery routes, and changing retail operation hours in approximately 13,000 post offices to match customer demand and reducing the number of administrative areas and districts.    And let me say this. I have said it to their faces; I have said it behind their backs. I think the unions have bent over backwards trying to work with the Postal Service and have done--I mean, of all the committees I have sat on and dealt with, I think here we have a genuine effort by unions to understand what is going on, to make sure that they do right by their members, and at the same time make sure that we have a viable and strong postal system. And I want to thank them.    The Postal Service reports that these initiatives have saved the agency some $15 billion a year. However, there are significant legal restrictions that limit the Postal Service's ability to cut costs and introduce new products to counteract its deteriorating financial condition. As a result, despite its diligent efforts, the Postal Service has reported a net loss of $5.1 billion for fiscal year 2015, its ninth consecutive year of losses. The Postal Service projects $5.9 billion in net losses for fiscal year 2016.    Only Congress can modify the nature and the structure of the funding obligations imposed by statute on the Postal Service's health care and pension programs. Of course, these problems are not new, and we have gone far down the road of developing reform legislation in previous Congresses. But Congress has been unable to reach a final bill. The time now is to act.    And so I want to again thank you, Mr. Chairman, for your commitment to working on a bipartisan basis, and it truly has been bipartisan with me and other colleagues to develop a realistic reform proposal. I am encouraged by our discussion and hopeful that we will be able to help put the Postal Service on a viable and sustainable path.    I believe that any postal reform legislation that this committee considers should do the following, as I close: alleviate the burdensome requirement for prefunding retiree health benefits, allow the Postal Service to have separate postal-only health plans that integrate fully with Medicare, allow the Postal Service to offer non-postal financial services such as post-office-to-post-office money orders and certain types of gift cards, and require the Postal Service to create a new chief innovation officer charged with developing new, innovative products, as any other business.    And so we need to work together to address the problems facing the Postal Service, and we need to treat the employees of the Postal Service fairly and compassionately. Waiting until the Postal Service runs out of cash is simply not an option. The Postal Service is an institution on which all Americans rely.    And finally, I want to thank Mr. Connelly and Mr. Lynch for their hard work on this effort. We have met many times trying to get through this, and we will.    And so, ladies and gentlemen, we simply cannot fail. We simply cannot kick the can down the road. The time to act is now, and I do believe that we are well on the road to accomplishing that.    And with that, I yield back.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Brennan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brennan. Thank you. Good morning, Mr. Chairman, Ranking Member Cummings, and members of the committee. Thank you, Chairman Chaffetz, for calling this hearing. I'm proud to be here today on behalf of the dedicated men and women of the United States Postal Service, who work hard every day to serve the American public.    The Postal Service currently operates with a business model that is unsustainable. In the past decade, total mail volume declined by 28 percent, and first-class mail, our most profitable product, has declined by 35 percent. To put this in perspective, the annual value of the revenue lost as a result of this volume decline is $21 billion per year. Nevertheless, the Postal Service is required to maintain an extensive network necessary to process and deliver the mail to every address 6 days a week.    The cost of that network is largely fixed or growing, regardless of volume. However, less volume and limited pricing flexibility means that there is less revenue to pay for that network and fund other costs imposed upon us by law.    We continue to make difficult but necessary decisions within the constraints of our business model to adapt to our rapidly changing marketplace. We have streamlined our operations, restructured our networks, and improved productivity for 6 consecutive years. As a result of these efforts, we've achieved annual cost savings of nearly $15 billion. We have also been successful in stabilizing marketing mail revenues and growing our package delivery business, which together enable America's e-commerce.    However, all of these actions cannot offset the negative impacts caused by the continued decline in the use of first-class mail. Since 2012, the Postal Service has been forced to default on more than $28 billion in mandated payments to the Treasury for retiree health benefits. Without these defaults, the deferral of capital investments and aggressive management actions, we would not be able to pay our employees, our suppliers, or to deliver the mail.    Without legislative and regulatory reform, our net losses will continue to grow regardless of our ongoing efforts to grow revenue and improve operational efficiencies. If allowed to continue, this will have a devastating impact on the future of the organization and the customers we serve.    Mr. Chairman, we need legislation now. Over the past year, we have been working with postal stakeholders to identify key reforms capable of achieving broad support and which would return the Postal Service to financial stability. The legislation we are seeking reflects the results of these discussions and includes the following four provisions: require full Medicare integration for postal retiree health plans, restore our exigent price increase for market-dominant products, calculate all retirement benefit liabilities using postal-specific salary growth and demographic assumptions, and provide additional product flexibility.    By enacting legislation that includes these provisions, the Postal Service can achieve an estimated $32 billion in combined cost reductions and new revenue over the next 5 years. Enactment of these provisions, favorable changes to our rate-setting system by the Postal Regulatory Commission, and our aggressive efficiency and revenue initiatives will return the Postal Service to financial stability.    Medicare integration is the most important of the legislative provisions we recommend. As the second-largest contributor to Medicare, our proposal allows the Postal Service and our employees to fully utilize the benefits for which we have already paid. By requiring full Medicare integration for Postal Service retirees, we will essentially eliminate the current unfunded liability for retiree health benefits.    We are also seeking to restore the exigent rate increase as a permanent part of our rate base. In April, the Postal Service was required by the PRC to eliminate the exigent surcharge and to reduce our prices. This will reduce our revenues this year by $1 billion and by approximately $2 billion annually, further worsening our financial condition. Reinstating the exigent surcharge is critical to the Postal Service's financial stability.    Mr. Chairman, our financial challenges are serious but solvable. The proposals we are advancing today are fiscally responsible. They enable the Postal Service to invest in the future and to continue to provide affordable and reliable delivery service. Mr. Chairman, I look forward to working with this committee and our stakeholders to restore the financial health of the United States Postal Service.    This concludes my remarks. I welcome any questions that you and the committee may have. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Chairman Taub, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Taub</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Taub. Mr. Chairman, Ranking Member Cummings, good morning. I'll hit a few key points of the committee's very detailed written testimony.    In 2015, the Postal Service had a total net loss of $5.1 billion, which is an improvement from 2014. However, this is the ninth consecutive net loss since 2007 and has increased the cumulative net deficit since then to $56.8 billion. These continuing losses have negatively impacted liquidity, requiring the Postal Service to use all of its $15 billion statutory borrowing capacity and causing total liabilities to far exceed total assets by $50.4 billion.    In the past 5 years, the Postal Service has not made any of the required prefunding payments to the retiree health benefit fund. This accruing nonpayment into the fund has skewed the Postal Service's current liabilities in relation to its assets. To reduce its debt ratio to historic averages, the Postal Service would have to significantly increase its current cash position or investments in capital assets and reduce its obligations to the retiree health benefit fund.    Low liquidity levels in recent years have impeded the Postal Service's ability to make capital investments in infrastructure. It now operates an aging vehicle fleet, increasing the need and consequently the costs for maintenance and repair. Also unmet is the need to invest in sorting and handling equipment to fully capitalize on business opportunities in the growing package delivery markets.    Total mail volume in 2015 dropped to levels not seen in more than 27 years, and the Postal Service anticipates further reductions in total volumes for 2016. The continuous decline in first-class mail seriously jeopardizes the Postal Service's ability to cover its fixed overhead costs.    Recent increases in revenues and subsequent higher liquidity are largely due to the temporary market-dominant product exigent surcharge. The additional revenue from competitive products, which are mainly parcels, is not sufficient to offset the future revenue loss resulting from the termination of the exigent surcharge, which was removed April 10. In order to maintain the operating net income it is currently achieving, the Postal Service would have to make up the loss of that revenue, which is approximately $2.1 billion annually.    With the growing liability of retiree health benefits, the inability to borrow for needed capital investments and the continued loss of high-margin, first-class mail revenues, the important task of improving the financial condition of the Postal Service is daunting.    Despite the financial news, there is still strength in the system. The Postal Service is the one government agency that touches every American on a daily basis. It is an organization that literally serves 155 million American households and businesses on a typical day. It facilitates trillions of dollars in commerce. The fundamental problem is that the Postal Service cannot currently generate sufficient funds to cover its mandated expenses and also invest in critically deferred capital needs.    Where can we look for answers? I would argue the starting point is to look at ourselves. What do we as a nation need from postal and delivery system and what is its cost? What exactly is universal mail service in the United States?    The Commission has determined that, unlike other countries, the universal service obligation, or USO, in the United States is largely undefined and instead is comprised of a broad set of policy statements with only a few legislative prescriptions. The Commission estimates the cost of providing universal service to be more than $4 billion annually. When assessing the current state of the Postal Service, policymakers should look at this fundamental issue and decide exactly what we as a nation need from the Postal Service and, most importantly, how those expectations are to be funded.    Mr. Chairman, Ranking Member Cummings, thank you for holding this hearing today and shining a spotlight on this critical part of our nation's infrastructure. I know you deeply appreciate the importance of these issues. There are no easy answers, but answer we must, and the Commission stands ready to help you in the search for solutions.    On behalf of all for commissioners and the entire hardworking agency staff, thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you, Mr. Taub.    I would now recognize Ms. Rectanus of the GAO. Did I pronounce your name properly?</t>
   </si>
   <si>
-    <t>Rectanus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rectanus. Yes ----</t>
   </si>
   <si>
@@ -115,18 +100,12 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Ms. Lowrance, I will now recognize you for 5 minutes.</t>
   </si>
   <si>
-    <t>Lowrance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lowrance. Mr. Chairman, Ranking Member Cummings, and the members of the committee, thank you for the opportunity to speak with you today about postal-related issues facing the mailing industry.    The mailing industry provides over 7.5 million jobs and accounts for $1.4 trillion in economic activity. While the mailing industry is a vital part of the Nation's economy and surpasses in size both the airline industry and the oil and natural gas industry, it is one that faces significant challenges. Not only are there policies, issues that must be considered, but also economic issues that balance the infrastructural needs of the American economy and the public welfare.    Mail is and will remain a vital part of the American economy and the manner in which the Nation communicates and does business. Despite all that has transpired over the last several years, market-dominant mail still consists of over 154 billion pieces or 97 percent of the Postal Service's business.    The American mail system is a sender-paid service. As volume continues to decline, however, the Postal Service is pressed to find new ways to help lessen its financial burden. From our perspective, there are several fundamental matters that need immediate attention, including the need for predictable, affordable mail services; complete, accurate, and transparent costing of products and services; and reliable, consistent mail service.    At the end of this calendar year, the Postal Regulatory Commission, as directed by the PAEA, will be reviewing the current system of rate regulation. Although the Postal Service has expressed displeasure with the price cap, the CPI-based cap has operated substantially as intended to the benefit of all postal customers, Postal Service, and the general public.    For business customers, the cap provides customers with an assurance of postal rate stability and predictability, which is key to the decision as to whether to continue to invest in mail as a business communication and commercial vehicle. For the years it has been in effect, this inflation-based price cap has served as an effective restraint against abuse of the Postal Service's monopoly power. The Postal Service has been required to focus more closely on the elimination of postal waste and inefficiencies in a manner that would not have happened in the absence of the cap.    Unfortunately, there are obligations such as the prefunding mandate and the nonparticipation of postal retirees and Medicare that has made operating under such a cap a challenge. The need for costing transparency has never been so apparent as it is today. The mailing industry has consistently called for greater clarity and transparency in the reporting of postal costs. This lack of transparency has resulted in other Postal Service decisions that have imposed additional cost on mailers without creating corresponding efficiencies in the postal network.    The Postal Service, its customers, and the Postal Regulatory Commission would benefit greatly by an upgrading of postal costs and modeling systems. The Postal Service should move without dispatch to an informed visibility-based system. This would enable costs to be tracked in an automated fashion similar to how it tracks service performance throughout the Nation.    For business customers, the quality of mail delivery is a key component of the value of mail. Timeliness, consistency, and reliability are extremely important to these users and recipients of the mail. The Postal Service's inability to provide consistent and reliable service is causing many enterprises to look to other means as their preferred method for communicating and doing business.    Legislative reform is just one of the many tools that would need to be leveraged in order for the Postal Service to be, and remain, fiscally viable. At the very least, mailers urge Congress to address those issues that are solely within its power to do so. One, fix the mandated prefunding requirements; and two, allow for fuller postal employee participation in Medicare.    With the upcoming 10-year review of the current rate regulation system, mailers need an accurate accounting and understanding of the cost of the products and services they receive from the Postal Service. The Commission should not be required to judge the performance of the existing system on the basis of data that are inadequate for sound decision-making. It is imperative that the Postal Service be directed to use the many data-driven tools such as the intelligent mail barcode and informed visibility to supply the data the Commission so sorely needs to make the informed decisions about the current system of rate regulation and how to move forward in its review.    At the end of the day, the mailers need reliable, consistent mail service and affordable, predictable prices in order to continue to invest in mail for business communication and commerce.    Chairman Chaffetz, Ranking Member Cummings, and the members of the committee, this concludes my prepared statement. I can answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Mr. Rolando, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Rolando</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rolando. Thank you, Chairman Chaffetz and Ranking Member Cummings and members of the committee, for inviting me to testify today.    You've asked me to focus on the urgent need for postal reform legislation and the provisions that we believe are necessary. I'm pleased to do that today, but before I do, it's important that we take a moment to recognize the current reality of the Postal Service. It is no longer 2009 when the Great Recession sent mail volume plummeting and the prefunding mandate crushed the Postal Service's finances, raising doubts in some quarters about the viability of the agency. Postal employees never doubted the viability of the Postal Service, but we worked hard to help the Service to adapt and survive as it shed more than 200,000 jobs and we boosted productivity dramatically.    The Postal Service has returned to operational profitability, now earning $4.4 billion over the past 2-1/2 years, our pension funds are healthy and better funded at 92 percent than most private sector pensions, and we have set aside some $50 billion for retiree health when most large private companies have not set aside a dime.    Thanks to the growth of direct mail and booming e-commerce, total mail volume recovered and stabilized in 2015, increasing the Postal Service's revenue to $69 billion.    There's no question that the Postal Service remains a vital part of the Nation's economic infrastructure. In 2015, we delivered more than 150 billion letters, magazines, and packages, 6 and even 7 days a week. The Postal Service's revenue is just a small part of the $1.4 trillion of the GDP accounted for by the U.S. mailing industry, which now employs 7-1/2 million Americans.    With an 84 percent approval rating for the American people, we believe the Postal Service can thrive in the 21st century with the right public policies. Now is not the time to weaken this treasured agency through service and delivery reductions, especially those that have failed to attract congressional support in the past. Instead, this committee should offer sensible and targeted reforms that would provide financial stability and allow the Postal Service to innovate.    Specifically, it should address three specific legislative and regulatory burdens that severely hinder the Postal Service. First, the Postal Service is required to massively fund future retiree health premiums decades in advance, regardless of financial conditions facing the agency or the country. No other public or private enterprise in America faces such a mandate, and most firms don't prefund at all. This mandate by itself accounts for nearly 90 percent of all reported losses since 2007.    NALC has suggested numerous ways to address the prefunding mandate over the years. As part of an overall reform effort that does not weaken our networks or diminish services to the public, we support reforms to the FEHBP program to maximize participation in Medicare among eligible postal retirees. This would almost eliminate the $50 billion unfunded liability for future retiree health while raising Medicare spending by less than 2/10 of 1 percent annually. Given that the Postal Service and its employees have contributed $29 billion to Medicare, this approach is fair and appropriate.    Second, Congress should consider the policy that requires 100 percent of postal retirement funds be invested in low-yielding treasury bonds. Together, the Civil Service and FERS postal pension accounts, along with the postal retiree health fund, hold nearly $350 billion in treasury securities. That makes the Postal Service and its employees the third-largest creditors of the U.S. Federal Government just behind China and Japan. No other company in America would invest its retirement assets in such an unsophisticated way, especially during a period when treasuries are yielding 2 to 4 percent annually.    Starting with the retiree health fund, we should apply private sector best practice by investing in well-diversified portfolios of private stocks, bonds, and real estate, as well as government bonds. Current policy forces the mailing industry to give Uncle Sam a low-cost loan instead of sensibly investing to cover future health-care liabilities. It makes no financial sense to invest in assets that yield less than the rising cost of care.    My submitted testimony makes the case for prudent investment change, addresses common objections to it, and explains how several independent agencies invest successfully in private securities.    By changing the investment policy, Congress could raise the long-term rate of return on the assets, reduce the burden of prefunding, offset the cost of postal Medicare integration, relieve upward pressure on postal rates, and reduce the misguided impulse to slash service.    Third, in my full testimony I address the postage rate-making process, which the PRC will formally review in 2017. There's a remarkable degree of stakeholder consensus about the principles of successful postal reform. All four postal unions, the Postal Service, and a wide range of companies and postal trade associations have agreed on reform principles for your consideration. And these principles were outlined in a letter sent to the chairman yesterday, and it urged legislation that would mandate postal-specific assumptions, satisfy--not eliminate--satisfy the prefunding burden by reforming FEHBP to maximize Medicare participation, invest the retiree health fund sensibly, permit the Postal Service to provide non-postal products in limited circumstances, and adjust the market-dominant rate base to ensure adequate revenue through the PRC review if necessary.    Our coalition's recommendations are grounded in common sense and best practice. They represent the measures on which we could agree while remaining confident that they would stabilize the Postal Service while allowing it to innovate to meet the evolving needs of our country. NALC and our sister postal unions remain committed to helping this committee find a fair and equitable path forward that does not damage our network of universal and affordable service or the employees that make that network special.    Thank you very much again for this opportunity to testify, and am happy to answer any questions.</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you very much, Mr. Chairman.    General Brennan, I have an article here from the Los Angeles Times that says, ``after peaking in 2006, total mail handled by the Postal Service has declined 27 percent.'' Is that fairly accurate, and is mail volume still slowly declining?</t>
   </si>
   <si>
@@ -274,9 +250,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you, Mr. Chairman.    And I want to follow up on a couple of things that the ranking member talked about, Ms. Brennan. You used the phrase ``give mail a digital reflection.'' What does that mean?</t>
   </si>
   <si>
@@ -334,9 +307,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Is it working? Oh, I am sorry. Okay. There we go. Thank you, Mr. Chairman. I also want to thank Mr. Cummings and Mr. Connolly and Mr. Meadows for all their work. We have done a lot of work on the side here to try to coordinate our efforts up here. And I am very pleased to see that the same thing is happening down there. I mean, we have a new postmaster general, along with the National Association of Letter Carrier, rural letter carriers, mail handlers, the clerks, supervisors, and then the PRC, as well as the mailing community and the GAO, inspectors general, everybody on the same page. And so it troubles me that we can't move this ball forward.    I do want to focus on one key aspect of this, and that is the coordination of benefits between the FEHBP--I hate these acronyms--but the Federal Employee Health Benefit Plan and Medicare. So, Postmaster General Brennan, the situation we have right now, as has been noted by the chairman--and the chairman deserves a lot of credit because he has really been the one that has brought us all together with the ranking member and has us all working together, and it has been completely bipartisan and really--we do a lot of work up here, and this effort has been really bipartisan.    But the way this works right now, the Postal Service is the second-largest contributor to Medicare, and the largest--and as the chairman and the ranking member noted, your people, the postal employees paid in $29 billion so far to Medicare. And the largest group is DOD, I believe, and they have a TRICARE wraparound with Medicare. And they are the largest. But when folks come out of the military and go on benefits, they are required to use Medicare as their primary insurer, so that is a good way to reduce their costs.    And we don't do that at the Postal Service. We have about 25 percent of our employees that are relying solely on FEHBP and are not using, as they could, as they could because they have paid in--they are not using Medicare as their primary insurer. This in fact would--and I think President Rolando mentioned this in his testimony. It would basically eliminate--out of that $50 billion in unfunded liability, it would just about eliminate all of it, is that right?</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank each of you.    As we enter into this, I want to start out, Mr. Taub, by saying thank you for your work. It was good to visit with the PRC and all the dedicated employees that work there.    Mr. Rolando, I want to just say I know I was not on your Christmas card list. I do appreciate the fact that you have been willing to work with me in an open-minded way. That was your commitment to me, my commitment to you, and I want to thank you.    Ms. Brennan, thank you so much for being here. Obviously, as we look at this, this is an interesting time and so for all the postal workers, you know, I just want to say thank you.    I have been a secret shopper because, you know, I am not shy about my criticism either. And so in Spruce Pine just the other day, I went into a place--actually, I sent my wife in because now I start to get recognized in some of these places. And the service that Debbie Calloway gave my wife was nothing less than spectacular. And she didn't know who she was, and we went in. And so I went back in to thank her for her service. And that is what we need to do in terms of service standards.    As a fiscal conservative, one of the things that you are asking me to do is get rid of a prefunding requirement that was, you know, part of a previous deal, and so why should I do that? Make a very short, compelling case on why I should do that.</t>
   </si>
   <si>
@@ -433,9 +400,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Mr. Chairman, I just want to note, now I know why my wedding invitation wasn't ----</t>
   </si>
   <si>
@@ -448,9 +412,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair. I just wanted to say every time we have a postal hearing I text my brother because he works for the post office, so I ask him did he have any questions that he wanted me to ask you. But one thing I wanted to say as far as the consolidations, I am glad that you thought enough, even though they might be necessary to slow it down because service does come first, and that is some of the things that he has spoken about because of all the closed stations, the long lines, and not enough clerks in the window. So I am glad that you are still putting service first and taking that into consideration because people will go other places if they don't feel like they are getting good service. And we definitely want the post office to thrive.    Ms. Brennan, one of the elements of the joint postal reform proposal put forward by the Postal Service, the postal unions, and certain elements of the mailing industry is the use of postal-specific demographic assumptions when calculating pension liabilities. The proposal would also require any surplus resulting from those calculations to be used to pay down the Postal Service's debt to the U.S. Treasury.    Intuitively, it makes sense to use the demographic and salary growth statistics of the postal workforce when calculating the Postal Service's pension liabilities. What is it about the demographics of the postal workforce compared to those of the government's entire workforce that you believe will result in lower cost?</t>
   </si>
   <si>
@@ -481,9 +442,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.</t>
   </si>
   <si>
-    <t>Connelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connelly. Would the gentlelady ----</t>
   </si>
   <si>
@@ -529,9 +487,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Ms. Brennan, I think I heard this; I just want to clarify. How many employees at the Postal Service total?</t>
   </si>
   <si>
@@ -625,9 +580,6 @@
     <t>412616</t>
   </si>
   <si>
-    <t>Ted Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chairman.    Postmaster General Brennan, last October the U.S. Postal Inspection Service issued a release about mail theft. And it says that these crimes are increasing and that mail theft from collection boxes and customers' mailboxes is a big problem. It also said in most cases of mail theft from centralized mailbox units involved counterfeit master keys.    So two questions for you. One is when you talk about right-sizing, are you reducing U.S. Postal Inspection Service members at all, and does that have an effect on mail theft? And second, as you move to more and more cluster boxes, doesn't that also increase mail theft because you just need one master key and then you have access to a whole lot of mailboxes?</t>
   </si>
   <si>
@@ -679,9 +631,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. Thank you, panel, for being here today.    A lot of this to me is about the perception's trust in the post office as a whole. And just going back and looking at the numbers over the last few years, 2015, $5.1 billion lost; 2014, $5.5 billion; '13, $5 billion; 2012, $15.9 billion; 2011, $5.1 billion; 2010, $8.5 billion. At some point the people are saying what is going on here? So this is just a perception. This is the reality of a major trust issue. I have 5 minutes to speak. In those 5 minutes, the approximate amount that the post office will lose is $47,564. That is a huge issue.    And I have heard today from some of the witnesses that we are working hard or some of the members, the colleagues, that they are working hard to try to do things better, but I have a couple specific questions in regards to this rate increase that we are beseeching Congress on. If you did receive this rate increase, can you tell me about where this extra money would be reinvested, General Brennan?</t>
   </si>
   <si>
@@ -742,9 +691,6 @@
     <t>412652</t>
   </si>
   <si>
-    <t>Brendan F. Boyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Boyle. Yes, thank you, Mr. Chairman.    I was struck by the fact that--I don't know when this was; I know it was recent--that Pew Research did a poll of favorability ratings of different, various government agencies, and the post office came out the highest at 84 percent, which I can't remember where Congress was, but I think Postal Service was slightly higher than where Congress ended up, significantly lower than that. That is made all the more remarkable by the fact that you have had a decade where there are 200,000 fewer employees than there were just a decade ago.    My question, though, is regarding the rather unique requirement the Postal Service lives under where essentially you have to prepay 75 years of obligations within a 10-year window. Can you talk about the effect that that has had on the balance sheet? And do you know of any other government agency or for that matter private sector company that has to live under such a unique requirement? I will leave that to anyone who wants to grab in. If you would like to go ahead.</t>
   </si>
   <si>
@@ -805,9 +751,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman. And for the record I want to say that my wife and I love our postman. He does a great job.    Ms. Lowrance, it was mentioned earlier about some of the things that are being done in the private sector. I would like to ask you what cost-cutting initiatives has industry had to implement in the wake of the evolving postal world as we know it?</t>
   </si>
   <si>
@@ -841,9 +784,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you.    It is an honor to be here today, and thank you, Chairman and the ranking member, for calling this hearing.    I wanted to be clear for the record that I had a 30-year career with the Postal Service starting as a letter carrier, so I have a lot of respect for Mr. Rolando.    I also want to say no other organization in America is compelled to prefund future retirement benefits at the level that is done by the Postal Service. It is clear that pushing a public agenda which operates with no taxpayer funds--so there was some allusion earlier that we are using taxpayer dollars. The revenue that we generate from the sale of our products is what we fund and operate our business with. And so often it seems to get confusing in debate when we start talking about the Postal Service as if we are using taxpayer dollars. So it operates with no taxpayer funds to the brink of financial crisis by forcing it to assume the financial burden assumed by no other agency or company is the height of the financial irresponsibility of Congress, and Congress should fix this problem that we created.    Today, as we are having this debate about the future of the Postal Service--and yes, there are some issues that we need to work with. And, Ms. Brennan, I have been very clear with you in private conversations, and, you know, trusting you to continue to keep delivery standards as one of the primary objectives, and as I look here with our postal customers and mailers who depend on us.    But one of the things I wanted to talk about is the downsizing commitment that has been made by the Postal Service, reducing your workforce by 200,000 careers since 2006, reducing your work hours by 331 million, changing operation hours. Can you, Ms. Brennan--and I would like Mr. Rolando to weigh in on this as well, and my mailers if you have time--how has this consolidation and reduction of workforce aligned with the phase 1 and phase 2 of the Network Rationalization plan or initiative?</t>
   </si>
   <si>
@@ -865,9 +805,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    And let me start with Ms. Rectanus. Do you know of any other government agency or private sector company that has to fully prefund the health care costs of its retirees?</t>
   </si>
   <si>
@@ -955,9 +892,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you much.    Chairman Taub, one of the objectives of the current system and any new system that comes out of the rate review is to make sure we have high-quality service standards. And right now, there is some indication that we are struggling in that regard. If the Postal Service continues to have problems in that area, what action do you think the Commission will take?</t>
   </si>
   <si>
@@ -1061,9 +995,6 @@
   </si>
   <si>
     <t>412558</t>
-  </si>
-  <si>
-    <t>Michelle Lujan Grisham</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman. I really appreciate that.    I am going to change up what I was going to do a little bit because I really appreciate the comments that my colleague Mr. Lynch made, although I don't need that report. If you want to see the efficiencies of the post office, go visit and do a ride-along with a letter carrier, and you will have no doubt that it is one of the most efficient systems in the world. And so thank you very much for that honor. And I plan to do more of that, particularly in the area that another one of my colleagues as already mentioned, Mrs. Lawrence.    But in this effort, because of budgetary issues, that we were consolidating, and, Ms. Brennan, I heard that that is on hold. But given the fact that that has really hurt rural and frontier areas, disabled and senior population who are traveling distances to get prescription drugs, I am very happy to hear that that is on hold.    But in addition to that and the numbers that have already been talked about, 200,000 employees, more than 360 facilities consolidated, there is now a 2011--so it is a little bit dated--but that GAO report says that, look, when you reduce the level of your services, you are actually hurting your revenue stream. So it is counterproductive.    And as you look at these issues, I would love it if you would give us further information in writing to this committee about your efforts in modernizing services and addressing these issues given your, I think, unfair mandates, that there is a healthy balance and we want to make sure in fact that we are building a revenue stream and at the same time continue to take appropriate actions to protect the populations who need the Postal Service in a way that I think is different than the average person receiving mail. So if you would do that, I would appreciate it.</t>
@@ -1597,11 +1528,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1623,11 +1552,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1647,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1675,11 +1600,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1701,11 +1624,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1725,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1753,11 +1672,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1777,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1805,11 +1720,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1829,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1857,11 +1768,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1883,11 +1792,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1907,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1935,11 +1840,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1959,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1987,11 +1888,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2011,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2039,11 +1936,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2063,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2089,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2115,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2141,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2167,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2193,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2219,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2245,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2271,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2297,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2323,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2349,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2375,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2401,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2427,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2453,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2481,11 +2344,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2505,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2531,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2557,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2583,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2609,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2635,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2661,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2687,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2713,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2739,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2765,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2791,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2817,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2843,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2869,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2895,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2921,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2947,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2973,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2999,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3025,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3051,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3077,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3103,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3129,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3155,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3183,11 +2992,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3207,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3233,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3259,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3285,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3311,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3337,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3363,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3389,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3415,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>86</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3441,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3467,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3493,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3519,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3545,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3571,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3597,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3623,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3649,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3677,11 +3448,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3701,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3727,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3753,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3779,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3805,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3831,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3857,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3885,11 +3640,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3909,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3935,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3961,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3987,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4013,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4039,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4065,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4091,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4117,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4143,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4169,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>115</v>
-      </c>
-      <c r="H101" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4195,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4221,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4247,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4273,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4299,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4325,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4351,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4377,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4403,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4429,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4457,11 +4168,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4481,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
-      </c>
-      <c r="G113" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4507,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
-      </c>
-      <c r="G114" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4535,11 +4240,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4559,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G116" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4585,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4611,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4637,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4663,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>143</v>
-      </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4689,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4715,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>143</v>
-      </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4741,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4767,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
-      </c>
-      <c r="G124" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4795,11 +4480,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4819,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4845,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>143</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
-      <c r="H127" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4871,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4897,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4923,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4949,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4975,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5001,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5027,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5053,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5079,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5105,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5133,11 +4792,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5157,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>155</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5185,11 +4840,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5209,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5235,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5261,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>170</v>
-      </c>
-      <c r="G143" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5287,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5313,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5339,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5365,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5391,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5417,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5443,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5469,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5495,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5521,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5547,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5573,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" t="s">
+        <v>156</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>171</v>
-      </c>
-      <c r="H155" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5599,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5625,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5651,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5677,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5703,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5729,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5755,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5781,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5807,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5833,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5859,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5885,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5911,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5937,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s">
-        <v>171</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5965,11 +5560,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5989,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>202</v>
-      </c>
-      <c r="G171" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6015,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6041,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>202</v>
-      </c>
-      <c r="G173" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6067,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6093,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>202</v>
-      </c>
-      <c r="G175" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6119,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6145,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>202</v>
-      </c>
-      <c r="G177" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6173,11 +5752,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6197,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>202</v>
-      </c>
-      <c r="G179" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6223,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6249,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>202</v>
-      </c>
-      <c r="G181" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6275,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6301,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>202</v>
-      </c>
-      <c r="G183" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6327,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6353,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
+        <v>187</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>202</v>
-      </c>
-      <c r="G185" t="s">
-        <v>203</v>
-      </c>
-      <c r="H185" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6381,11 +5944,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6405,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>220</v>
-      </c>
-      <c r="G187" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6431,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6457,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
-      </c>
-      <c r="G189" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6483,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6509,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6535,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>220</v>
-      </c>
-      <c r="G192" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6561,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6587,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
-      </c>
-      <c r="G194" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6613,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6639,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>220</v>
-      </c>
-      <c r="G196" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6665,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6691,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>220</v>
-      </c>
-      <c r="G198" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6717,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6743,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>220</v>
-      </c>
-      <c r="G200" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6769,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6795,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6821,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>220</v>
-      </c>
-      <c r="G203" t="s">
+        <v>204</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
         <v>221</v>
-      </c>
-      <c r="H203" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6847,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>220</v>
-      </c>
-      <c r="G204" t="s">
-        <v>221</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6875,11 +6400,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6899,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>241</v>
-      </c>
-      <c r="G206" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6925,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6951,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>241</v>
-      </c>
-      <c r="G208" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6977,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7003,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>241</v>
-      </c>
-      <c r="G210" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7029,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7055,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>241</v>
-      </c>
-      <c r="G212" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7081,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>114</v>
-      </c>
-      <c r="G213" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7107,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>241</v>
-      </c>
-      <c r="G214" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7133,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>114</v>
-      </c>
-      <c r="G215" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7159,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>241</v>
-      </c>
-      <c r="G216" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7185,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>114</v>
-      </c>
-      <c r="G217" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7211,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>241</v>
-      </c>
-      <c r="G218" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7237,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>241</v>
-      </c>
-      <c r="G219" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7263,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>105</v>
-      </c>
-      <c r="G220" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7289,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>241</v>
-      </c>
-      <c r="G221" t="s">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7315,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>105</v>
-      </c>
-      <c r="G222" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7341,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>105</v>
-      </c>
-      <c r="G223" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7369,11 +6856,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7393,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
-      </c>
-      <c r="G225" t="s">
-        <v>263</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7419,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7445,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>262</v>
-      </c>
-      <c r="G227" t="s">
-        <v>263</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7471,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7497,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>262</v>
-      </c>
-      <c r="G229" t="s">
-        <v>263</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7523,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7549,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>262</v>
-      </c>
-      <c r="G231" t="s">
-        <v>263</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7575,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7601,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
-      </c>
-      <c r="G233" t="s">
-        <v>263</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7629,11 +7096,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7653,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>274</v>
-      </c>
-      <c r="G235" t="s">
-        <v>275</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7679,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7705,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>274</v>
-      </c>
-      <c r="G237" t="s">
-        <v>275</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7731,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7757,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>274</v>
-      </c>
-      <c r="G239" t="s">
-        <v>275</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7783,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>114</v>
-      </c>
-      <c r="G240" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7809,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>282</v>
-      </c>
-      <c r="G241" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7835,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7861,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>282</v>
-      </c>
-      <c r="G243" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7887,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7913,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>282</v>
-      </c>
-      <c r="G245" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7939,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7965,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>282</v>
-      </c>
-      <c r="G247" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7991,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8017,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>282</v>
-      </c>
-      <c r="G249" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8043,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8069,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>282</v>
-      </c>
-      <c r="G251" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8095,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8121,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>282</v>
-      </c>
-      <c r="G253" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8147,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8173,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>282</v>
-      </c>
-      <c r="G255" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8199,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8225,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>282</v>
-      </c>
-      <c r="G257" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8251,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8277,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>282</v>
-      </c>
-      <c r="G259" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8303,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8329,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>282</v>
-      </c>
-      <c r="G261" t="s">
+        <v>262</v>
+      </c>
+      <c r="G261" t="s"/>
+      <c r="H261" t="s">
         <v>283</v>
-      </c>
-      <c r="H261" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8355,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8381,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>282</v>
-      </c>
-      <c r="G263" t="s">
-        <v>283</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8407,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>105</v>
-      </c>
-      <c r="G264" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8435,11 +7840,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8461,11 +7864,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8485,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>105</v>
-      </c>
-      <c r="G267" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8513,11 +7912,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8537,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>312</v>
-      </c>
-      <c r="G269" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8563,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="G270" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8589,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>312</v>
-      </c>
-      <c r="G271" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8615,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8641,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>312</v>
-      </c>
-      <c r="G273" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8667,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8693,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>312</v>
-      </c>
-      <c r="G275" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8719,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>312</v>
-      </c>
-      <c r="G276" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8745,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8771,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>312</v>
-      </c>
-      <c r="G278" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8797,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>20</v>
-      </c>
-      <c r="G279" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8823,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>312</v>
-      </c>
-      <c r="G280" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8849,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="G281" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8875,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>312</v>
-      </c>
-      <c r="G282" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8901,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8927,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>312</v>
-      </c>
-      <c r="G284" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8953,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>20</v>
-      </c>
-      <c r="G285" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8979,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9005,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>312</v>
-      </c>
-      <c r="G287" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9031,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>20</v>
-      </c>
-      <c r="G288" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9057,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
+        <v>291</v>
+      </c>
+      <c r="G289" t="s"/>
+      <c r="H289" t="s">
         <v>312</v>
-      </c>
-      <c r="G289" t="s">
-        <v>313</v>
-      </c>
-      <c r="H289" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9083,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
-      </c>
-      <c r="G290" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9109,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>312</v>
-      </c>
-      <c r="G291" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9135,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9161,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>312</v>
-      </c>
-      <c r="G293" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9187,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9213,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>312</v>
-      </c>
-      <c r="G295" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9239,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9265,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>312</v>
-      </c>
-      <c r="G297" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9291,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9317,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>312</v>
-      </c>
-      <c r="G299" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9343,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9369,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>312</v>
-      </c>
-      <c r="G301" t="s">
-        <v>313</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9397,11 +8728,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9421,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>348</v>
-      </c>
-      <c r="G303" t="s">
-        <v>349</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9447,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9473,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>348</v>
-      </c>
-      <c r="G305" t="s">
-        <v>349</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9499,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
-      </c>
-      <c r="G306" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9525,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>348</v>
-      </c>
-      <c r="G307" t="s">
-        <v>349</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9551,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>20</v>
-      </c>
-      <c r="G308" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9577,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>348</v>
-      </c>
-      <c r="G309" t="s">
-        <v>349</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9605,11 +8920,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9629,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>20</v>
-      </c>
-      <c r="G311" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9657,11 +8968,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>12</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9681,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
-      </c>
-      <c r="G313" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9709,11 +9016,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9733,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
-      </c>
-      <c r="G315" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9761,11 +9064,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>12</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9785,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>20</v>
-      </c>
-      <c r="G317" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9813,11 +9112,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9837,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>20</v>
-      </c>
-      <c r="G319" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9865,11 +9160,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9889,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>20</v>
-      </c>
-      <c r="G321" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9917,11 +9208,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9941,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>20</v>
-      </c>
-      <c r="G323" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9969,11 +9256,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9993,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>20</v>
-      </c>
-      <c r="G325" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10021,11 +9304,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10045,13 +9326,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>20</v>
-      </c>
-      <c r="G327" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10073,11 +9352,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10099,11 +9376,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10123,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>20</v>
-      </c>
-      <c r="G330" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10151,11 +9424,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10177,11 +9448,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10201,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>20</v>
-      </c>
-      <c r="G333" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10229,11 +9496,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>12</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10253,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>20</v>
-      </c>
-      <c r="G335" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10281,11 +9544,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10305,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>105</v>
-      </c>
-      <c r="G337" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10333,11 +9592,9 @@
       <c r="F338" t="s">
         <v>11</v>
       </c>
-      <c r="G338" t="s">
-        <v>12</v>
-      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10357,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>105</v>
-      </c>
-      <c r="G339" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10385,11 +9640,9 @@
       <c r="F340" t="s">
         <v>11</v>
       </c>
-      <c r="G340" t="s">
-        <v>12</v>
-      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10409,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>15</v>
-      </c>
-      <c r="G341" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10435,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>20</v>
-      </c>
-      <c r="G342" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10461,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>15</v>
-      </c>
-      <c r="G343" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10487,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>20</v>
-      </c>
-      <c r="G344" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10513,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>20</v>
-      </c>
-      <c r="G345" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10539,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>20</v>
-      </c>
-      <c r="G346" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10565,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>20</v>
-      </c>
-      <c r="G347" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10591,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>20</v>
-      </c>
-      <c r="G348" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10617,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>15</v>
-      </c>
-      <c r="G349" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10645,11 +9880,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10669,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>20</v>
-      </c>
-      <c r="G351" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
